--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/z-series-time-series.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/z-series-time-series.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25193F0C-3337-4B34-B235-0D4BDC4FD318}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59516C3-7A2C-4914-A79A-2E4E1002CA5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="2" r:id="rId1"/>
@@ -955,14 +955,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -978,7 +978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -986,7 +986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -994,7 +994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>138</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -1054,18 +1054,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
@@ -1164,20 +1164,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>53</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>53</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>53</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>53</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>53</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>53</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>53</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>53</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
@@ -1545,16 +1545,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>55</v>
       </c>
@@ -1625,15 +1625,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1644,14 +1644,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
@@ -1691,17 +1691,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>56</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>58</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>97</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>98</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>99</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>100</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>101</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>102</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>103</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>104</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>105</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>106</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>107</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>108</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>109</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>110</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>111</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>112</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>113</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>114</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>115</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>116</v>
       </c>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/z-series-time-series.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/z-series-time-series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59516C3-7A2C-4914-A79A-2E4E1002CA5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5C0F50-C958-4849-9D69-52740290CB03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="150">
   <si>
     <t/>
   </si>
@@ -197,38 +197,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:0:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>dimensionOrder</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -368,86 +340,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[bindata:6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:8]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:9]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:10]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:11]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:12]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:13]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:14]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:15]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:16]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:17]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:18]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:19]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:20]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:21]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:22]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:23]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:24]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:25]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/PixelType#</t>
   </si>
   <si>
@@ -549,6 +441,113 @@
   <si>
     <t>xsd:nonNegativeLong</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/z-series-time-series/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/z-series-time-series/channel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/z-series-time-series/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels0:0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata1</t>
+  </si>
+  <si>
+    <t>bindata:bindata2</t>
+  </si>
+  <si>
+    <t>bindata:bindata3</t>
+  </si>
+  <si>
+    <t>bindata:bindata4</t>
+  </si>
+  <si>
+    <t>bindata:bindata5</t>
+  </si>
+  <si>
+    <t>bindata:bindata6</t>
+  </si>
+  <si>
+    <t>bindata:bindata7</t>
+  </si>
+  <si>
+    <t>bindata:bindata8</t>
+  </si>
+  <si>
+    <t>bindata:bindata9</t>
+  </si>
+  <si>
+    <t>bindata:bindata10</t>
+  </si>
+  <si>
+    <t>bindata:bindata11</t>
+  </si>
+  <si>
+    <t>bindata:bindata12</t>
+  </si>
+  <si>
+    <t>bindata:bindata13</t>
+  </si>
+  <si>
+    <t>bindata:bindata14</t>
+  </si>
+  <si>
+    <t>bindata:bindata15</t>
+  </si>
+  <si>
+    <t>bindata:bindata16</t>
+  </si>
+  <si>
+    <t>bindata:bindata17</t>
+  </si>
+  <si>
+    <t>bindata:bindata18</t>
+  </si>
+  <si>
+    <t>bindata:bindata19</t>
+  </si>
+  <si>
+    <t>bindata:bindata20</t>
+  </si>
+  <si>
+    <t>bindata:bindata21</t>
+  </si>
+  <si>
+    <t>bindata:bindata22</t>
+  </si>
+  <si>
+    <t>bindata:bindata23</t>
+  </si>
+  <si>
+    <t>bindata:bindata24</t>
+  </si>
+  <si>
+    <t>bindata:bindata25</t>
   </si>
 </sst>
 </file>
@@ -951,7 +950,7 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1020,18 +1019,18 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -1039,12 +1038,37 @@
         <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>119</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1060,7 +1084,7 @@
     <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1140,16 +1164,16 @@
         <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1167,13 +1191,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1188,7 +1212,7 @@
         <v>49</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>33</v>
@@ -1209,7 +1233,7 @@
         <v>34</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>32</v>
@@ -1240,31 +1264,31 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -1272,16 +1296,16 @@
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>39</v>
@@ -1299,24 +1323,24 @@
         <v>39</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1334,202 +1358,202 @@
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +1572,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -1559,13 +1583,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1585,7 +1609,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1599,18 +1623,18 @@
         <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1638,10 +1662,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1657,7 +1681,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1665,7 +1689,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>51</v>
@@ -1673,7 +1697,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -1694,7 +1718,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
@@ -1715,7 +1739,7 @@
         <v>43</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1739,7 +1763,7 @@
         <v>44</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1756,18 +1780,18 @@
         <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1">
         <v>576</v>
@@ -1775,13 +1799,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1">
         <v>576</v>
@@ -1789,13 +1813,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1">
         <v>576</v>
@@ -1803,13 +1827,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1">
         <v>576</v>
@@ -1817,13 +1841,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1">
         <v>576</v>
@@ -1831,13 +1855,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1">
         <v>576</v>
@@ -1845,13 +1869,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1">
         <v>576</v>
@@ -1859,13 +1883,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1">
         <v>576</v>
@@ -1873,13 +1897,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1">
         <v>576</v>
@@ -1887,13 +1911,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1">
         <v>576</v>
@@ -1901,13 +1925,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E15" s="1">
         <v>576</v>
@@ -1915,13 +1939,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1">
         <v>576</v>
@@ -1929,13 +1953,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="C17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1">
         <v>576</v>
@@ -1943,13 +1967,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="C18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E18" s="1">
         <v>576</v>
@@ -1957,13 +1981,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E19" s="1">
         <v>576</v>
@@ -1971,13 +1995,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E20" s="1">
         <v>576</v>
@@ -1985,13 +2009,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="C21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E21" s="1">
         <v>576</v>
@@ -1999,13 +2023,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="C22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E22" s="1">
         <v>576</v>
@@ -2013,13 +2037,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="C23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E23" s="1">
         <v>576</v>
@@ -2027,13 +2051,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C24" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E24" s="1">
         <v>576</v>
@@ -2041,13 +2065,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C25" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E25" s="1">
         <v>576</v>
@@ -2055,13 +2079,13 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="C26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E26" s="1">
         <v>576</v>
@@ -2069,13 +2093,13 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="C27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E27" s="1">
         <v>576</v>
@@ -2083,13 +2107,13 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="C28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E28" s="1">
         <v>576</v>
@@ -2097,13 +2121,13 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="C29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E29" s="1">
         <v>576</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/z-series-time-series.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/z-series-time-series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5C0F50-C958-4849-9D69-52740290CB03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345AA539-46BB-4BD1-AE47-A057BC5FBB72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
   </bookViews>
@@ -32,9 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="150">
   <si>
-    <t/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
   <si>
@@ -95,24 +92,12 @@
     <t>rdfs:label</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
     <t>datatype</t>
   </si>
   <si>
-    <t>:Image</t>
-  </si>
-  <si>
     <t>rdf:langString</t>
   </si>
   <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
@@ -143,30 +128,18 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
     <t>xsd:positiveInteger</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Binary Data</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
@@ -207,12 +180,6 @@
     <t>color</t>
   </si>
   <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
     <t>[color:-2147483648]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -232,10 +199,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:length</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>/////////////////////////wAA////AP//AAAAAP///wD/AP////8AAP//////AP//AAD/AP//////AP////8A/////wD/AP//////AP////8A/////wD/AP//////AP///wD//////wD/AP//////AP///wD//////wD/AP//////AP//AP///////wD//wAA////AP//AAAAAP///wD//////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////////wAAAP////8A//////////////8A/////wAA//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A//////////////8A//////8A////////////////////////////////</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -354,58 +317,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Pixels</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:PixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixelType:uint8</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -418,10 +329,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixelType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -548,6 +455,110 @@
   </si>
   <si>
     <t>bindata:bindata25</t>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -963,106 +974,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1091,94 +1102,95 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1193,8 +1205,8 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -1203,45 +1215,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1257,90 +1269,90 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1358,202 +1370,202 @@
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1571,30 +1583,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1602,39 +1614,39 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1659,45 +1671,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -1719,7 +1731,7 @@
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -1727,24 +1739,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1753,45 +1765,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1">
         <v>576</v>
@@ -1799,13 +1811,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1">
         <v>576</v>
@@ -1813,13 +1825,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1">
         <v>576</v>
@@ -1827,13 +1839,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1">
         <v>576</v>
@@ -1841,13 +1853,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1">
         <v>576</v>
@@ -1855,13 +1867,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1">
         <v>576</v>
@@ -1869,13 +1881,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1">
         <v>576</v>
@@ -1883,13 +1895,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1">
         <v>576</v>
@@ -1897,13 +1909,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1">
         <v>576</v>
@@ -1911,13 +1923,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1">
         <v>576</v>
@@ -1925,13 +1937,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1">
         <v>576</v>
@@ -1939,13 +1951,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1">
         <v>576</v>
@@ -1953,13 +1965,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1">
         <v>576</v>
@@ -1967,13 +1979,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E18" s="1">
         <v>576</v>
@@ -1981,13 +1993,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E19" s="1">
         <v>576</v>
@@ -1995,13 +2007,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E20" s="1">
         <v>576</v>
@@ -2009,13 +2021,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1">
         <v>576</v>
@@ -2023,13 +2035,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E22" s="1">
         <v>576</v>
@@ -2037,13 +2049,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E23" s="1">
         <v>576</v>
@@ -2051,13 +2063,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C24" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E24" s="1">
         <v>576</v>
@@ -2065,13 +2077,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C25" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E25" s="1">
         <v>576</v>
@@ -2079,13 +2091,13 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E26" s="1">
         <v>576</v>
@@ -2093,13 +2105,13 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E27" s="1">
         <v>576</v>
@@ -2107,13 +2119,13 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E28" s="1">
         <v>576</v>
@@ -2121,13 +2133,13 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E29" s="1">
         <v>576</v>
